--- a/Apresentacoes_ideias_Diagramas/Diagrama_GEOs_AGEOs.xlsx
+++ b/Apresentacoes_ideias_Diagramas/Diagrama_GEOs_AGEOs.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7950"/>
+    <workbookView windowWidth="14460" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DiagramaOficial" sheetId="1" r:id="rId1"/>
+    <sheet name="FunçõesCódigo" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>GEOvar</t>
   </si>
@@ -51,6 +52,12 @@
   <si>
     <t>Obtém a solução final</t>
   </si>
+  <si>
+    <t>Alteração do valor de TAU (AGEOs)</t>
+  </si>
+  <si>
+    <t>Rankeia e Flipa</t>
+  </si>
 </sst>
 </file>
 
@@ -59,8 +66,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,29 +86,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,9 +94,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,8 +116,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,9 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,42 +180,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +199,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,31 +239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,115 +251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +281,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +354,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,6 +719,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -723,6 +754,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,67 +811,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -814,148 +821,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="31" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,9 +1036,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -1055,6 +1059,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3712,8 +3719,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175895</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>583565</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>187960</xdr:rowOff>
     </xdr:from>
@@ -3730,8 +3737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276985" y="11706860"/>
-          <a:ext cx="8585835" cy="857250"/>
+          <a:off x="3879215" y="11706860"/>
+          <a:ext cx="5983605" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3861,7 +3868,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
-            <a:t>Confirm the mutation of a bit of the population with probability P k ∝ k−τ with k = 1, L</a:t>
+            <a:t>Muta 1 bit da população</a:t>
           </a:r>
           <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
         </a:p>
@@ -4624,15 +4631,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>1045210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19685</xdr:colOff>
+      <xdr:colOff>1318895</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>240665</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -4643,9 +4650,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5572760" y="12564110"/>
-          <a:ext cx="3175" cy="427990"/>
+        <a:xfrm flipH="true">
+          <a:off x="5575300" y="12564110"/>
+          <a:ext cx="1299845" cy="427355"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4913,6 +4920,4287 @@
         <a:xfrm flipH="true">
           <a:off x="5558790" y="14586585"/>
           <a:ext cx="13970" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1921510</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1059180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263015" y="11720830"/>
+          <a:ext cx="1759585" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Muta 1 bit para cada variável</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2124710</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>915035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1291590" y="673100"/>
+          <a:ext cx="8724265" cy="724535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Inicializa a população de bits que encodam N variáveis de design</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>199390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2104390</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5813425" y="1786890"/>
+          <a:ext cx="4182110" cy="724535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Inicializa CoI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>i−1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t> = 1/√n</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921385</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>913765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477635" y="1396365"/>
+          <a:ext cx="3175" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>284480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1009015</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1407160" y="3027680"/>
+          <a:ext cx="8579485" cy="724535"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Verifica o deltaFlipa cada bit e verifica o deltaV comparado com o melhor_fx</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>909320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>955675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8843645" y="1391920"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>910590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>879475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>283210</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4171950" y="1393190"/>
+          <a:ext cx="3175" cy="1633220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>901065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>273685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1948815" y="1383665"/>
+          <a:ext cx="3175" cy="1633220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>934085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6477635" y="2521585"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>946785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>955675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>287020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="8843645" y="2534285"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>78740</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2222500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1869440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5634990" y="4084320"/>
+          <a:ext cx="2143760" cy="1760220"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Calcula a Chance of Improvement:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Quantidade de bits que flipado dão melhor que o melhor_fx / total de bits</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1877695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7985760" y="4092575"/>
+          <a:ext cx="2143760" cy="1760220"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Calcula a Chance of Improvement:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Quantidade de bits que flipado dão melhor que o atual_fx / total de bits</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1011555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6706870" y="3754755"/>
+          <a:ext cx="1905" cy="329565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1010285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1167130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9050020" y="3753485"/>
+          <a:ext cx="8255" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1814830</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1479550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Diamond 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="6297930"/>
+          <a:ext cx="1332230" cy="1303020"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:t>CoI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:t> = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1148715</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1869440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1150620</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6704965" y="5844540"/>
+          <a:ext cx="1905" cy="452755"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1147127</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1886267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1164907</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7656195" y="4907280"/>
+          <a:ext cx="445770" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72871"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>617220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1699260</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1027430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7992110" y="6738620"/>
+          <a:ext cx="1598295" cy="410210"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Reset τ mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1814830</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>821690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>827405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="true">
+          <a:off x="7371080" y="6943090"/>
+          <a:ext cx="621030" cy="5715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>471170</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1445260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Diamond 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6027420" y="7940040"/>
+              <a:ext cx="1332230" cy="1303020"/>
+            </a:xfrm>
+            <a:prstGeom prst="diamond">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+                <a:t>CoI</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFillTx/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="pt-PT" sz="1100">
+                      <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                    </a:rPr>
+                    <m:t>≤</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+                <a:t> CoI</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFillTx/>
+                </a:rPr>
+                <a:t>i-1</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFillTx/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="Diamond 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6027420" y="7940040"/>
+              <a:ext cx="1332230" cy="1303020"/>
+            </a:xfrm>
+            <a:prstGeom prst="diamond">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent5"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent5"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+                <a:t>CoI</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFillTx/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="pt-PT" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>≤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+                <a:t> CoI</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:uFillTx/>
+                </a:rPr>
+                <a:t>i-1</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:uFillTx/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>582295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1687830</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>992505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7980680" y="8380095"/>
+          <a:ext cx="1598295" cy="410210"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Increase τ mode</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>787400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89535</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>793750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="true">
+          <a:off x="7359650" y="8585200"/>
+          <a:ext cx="621030" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1137285</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1479550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1148715</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="20" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6693535" y="7600950"/>
+          <a:ext cx="11430" cy="338455"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1687830</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>822325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1699260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>786765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="21" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="9578975" y="6943725"/>
+          <a:ext cx="11430" cy="1640840"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2083333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>437515</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>135890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>499745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rounded Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5993765" y="9483090"/>
+          <a:ext cx="3383280" cy="363855"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>CoI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>i−1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t> = CoI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200" baseline="-25000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1129030</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1445260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1137285</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6685280" y="9243060"/>
+          <a:ext cx="8255" cy="235585"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>787400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1687830</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>318135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Elbow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="9377045" y="8585200"/>
+          <a:ext cx="201930" cy="1080135"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -117925"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>820420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1011555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921510" y="3754755"/>
+          <a:ext cx="5080" cy="6465570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2028190</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>980440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485515" y="10218420"/>
+          <a:ext cx="1838325" cy="2280920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Rankeia os bits DE TODA POPULAÇÃO de acordo com o fitness</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Muta 1 bit DE TODA POPULAÇÃO.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1017905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="4692650" y="3761105"/>
+          <a:ext cx="12700" cy="6417945"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1935480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1008380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rounded Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1249680" y="10232390"/>
+          <a:ext cx="1786890" cy="2294890"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Rankeia os bits DE CADA VARIÁVEL de acordo com o fitness</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Muta 1 bit DE CADA VARIÁVEL</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1379855</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>916305</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1836420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Diamond 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4675505" y="12992100"/>
+          <a:ext cx="1797050" cy="1595120"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:t>Was the</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:t>stopping</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:t>criteria</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1100"/>
+            <a:t>met?</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>916305</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>647065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1038225</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Elbow Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="true">
+          <a:off x="6472555" y="3390265"/>
+          <a:ext cx="3514090" cy="10398760"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 116696"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1461770</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667385</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1123315</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562860" y="14860905"/>
+          <a:ext cx="5995670" cy="905510"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Return the best solution found during the search</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1835785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>217805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="5558790" y="14586585"/>
+          <a:ext cx="13970" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1959610</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>994410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rounded Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8012430" y="10232390"/>
+          <a:ext cx="1838325" cy="2280920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Rankeia os bits DE TODA POPULAÇÃO de acordo com o fitness</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Muta 1 bit DE TODA POPULAÇÃO.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175895</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2014220</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>994410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5732145" y="10232390"/>
+          <a:ext cx="1838325" cy="2280920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Rankeia os bits DE TODA POPULAÇÃO de acordo com o fitness</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200"/>
+            <a:t>Muta 1 bit DE TODA POPULAÇÃO.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1070610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>513080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6626860" y="9860280"/>
+          <a:ext cx="24765" cy="372110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1084580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>499110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1096010</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975725" y="9846310"/>
+          <a:ext cx="11430" cy="385445"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5204,8 +9492,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -5240,15 +9528,15 @@
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" ht="91" customHeight="true" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="27"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" ht="97" customHeight="true" spans="1:6">
       <c r="A4" s="8" t="s">
@@ -5257,8 +9545,8 @@
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" ht="169" customHeight="true" spans="1:6">
       <c r="A5" s="12" t="s">
@@ -5282,7 +9570,7 @@
       <c r="B7" s="19"/>
       <c r="C7" s="18"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5290,30 +9578,30 @@
       <c r="A8" s="16"/>
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" ht="118" customHeight="true" spans="1:4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" ht="97" customHeight="true" spans="1:6">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="19"/>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" ht="149" customHeight="true" spans="1:4">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="19"/>
-      <c r="D11" s="24"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" ht="105" customHeight="true" spans="1:6">
       <c r="A12" s="16" t="s">
@@ -5321,8 +9609,8 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5333,4 +9621,139 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14.45" customWidth="true"/>
+    <col min="2" max="2" width="28.8" customWidth="true"/>
+    <col min="3" max="3" width="29.6666666666667" customWidth="true"/>
+    <col min="4" max="4" width="30.6416666666667" customWidth="true"/>
+    <col min="5" max="5" width="30.5416666666667" customWidth="true"/>
+    <col min="6" max="6" width="35.2833333333333" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="38" customHeight="true" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="87" customHeight="true" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" ht="91" customHeight="true" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" ht="97" customHeight="true" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" ht="169" customHeight="true" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" ht="132" customHeight="true" spans="1:6">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" ht="122" customHeight="true" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="53" customHeight="true" spans="1:6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" ht="118" customHeight="true" spans="1:4">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" ht="97" customHeight="true" spans="1:6">
+      <c r="A10" s="16"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="19"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" ht="149" customHeight="true" spans="1:4">
+      <c r="A11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" ht="105" customHeight="true" spans="1:6">
+      <c r="A12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Apresentacoes_ideias_Diagramas/Diagrama_GEOs_AGEOs.xlsx
+++ b/Apresentacoes_ideias_Diagramas/Diagrama_GEOs_AGEOs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7950" activeTab="1"/>
+    <workbookView windowWidth="19665" windowHeight="7980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DiagramaOficial" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>GEOvar</t>
   </si>
@@ -53,6 +53,12 @@
     <t>Obtém a solução final</t>
   </si>
   <si>
+    <t>AGEO1var</t>
+  </si>
+  <si>
+    <t>AGEO2var</t>
+  </si>
+  <si>
     <t>Alteração do valor de TAU (AGEOs)</t>
   </si>
   <si>
@@ -64,12 +70,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,30 +92,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -126,30 +125,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +138,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,14 +162,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +214,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -209,21 +229,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -239,7 +252,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +282,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,37 +396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,131 +432,404 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="59">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="true"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top style="thin">
+        <color auto="true"/>
+      </top>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color auto="true"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="true"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -640,17 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -688,28 +1077,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -719,11 +1086,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,6 +1121,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,201 +1183,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="58" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="57" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="53" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="53" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="54" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="31" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,92 +1343,233 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5117,11 +5625,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>189865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2124710</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2165350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>915035</xdr:rowOff>
     </xdr:to>
@@ -5132,8 +5640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1291590" y="673100"/>
-          <a:ext cx="8724265" cy="724535"/>
+          <a:off x="1291590" y="672465"/>
+          <a:ext cx="13419455" cy="725170"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5279,8 +5787,8 @@
       <xdr:rowOff>199390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2104390</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2199640</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>923925</xdr:rowOff>
     </xdr:to>
@@ -5292,7 +5800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5813425" y="1786890"/>
-          <a:ext cx="4182110" cy="724535"/>
+          <a:ext cx="8931910" cy="724535"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5501,8 +6009,8 @@
       <xdr:rowOff>284480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2162810</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1009015</xdr:rowOff>
     </xdr:to>
@@ -5514,7 +6022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1407160" y="3027680"/>
-          <a:ext cx="8579485" cy="724535"/>
+          <a:ext cx="13301345" cy="724535"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5728,21 +6236,23 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="57150">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="3">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -5778,21 +6288,23 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="57150">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="3">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -5928,6 +6440,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -6099,6 +6614,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
@@ -6557,9 +7075,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -6583,68 +7103,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1147127</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1886267</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>630555</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1164907</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1958340</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Elbow Connector 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7656195" y="4907280"/>
-          <a:ext cx="445770" cy="2352675"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 72871"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>617220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1699260</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1027430</xdr:rowOff>
+      <xdr:rowOff>1040765</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6653,7 +7121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7992110" y="6738620"/>
+          <a:off x="10578465" y="6751955"/>
           <a:ext cx="1598295" cy="410210"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6797,13 +7265,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1814830</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>821690</xdr:rowOff>
+      <xdr:rowOff>828040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>100965</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>827405</xdr:rowOff>
+      <xdr:rowOff>835660</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -6814,16 +7282,18 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="true">
-          <a:off x="7371080" y="6943090"/>
-          <a:ext cx="621030" cy="5715"/>
+        <a:xfrm>
+          <a:off x="7371080" y="6949440"/>
+          <a:ext cx="3207385" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -7236,16 +7706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>582295</xdr:rowOff>
+      <xdr:rowOff>594360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1687830</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1946910</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>992505</xdr:rowOff>
+      <xdr:rowOff>1004570</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7254,7 +7724,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7980680" y="8380095"/>
+          <a:off x="10567035" y="8392160"/>
           <a:ext cx="1598295" cy="410210"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7398,13 +7868,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1803400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>787400</xdr:rowOff>
+      <xdr:rowOff>793115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>348615</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>793750</xdr:rowOff>
+      <xdr:rowOff>798830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7415,16 +7885,18 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="true">
-          <a:off x="7359650" y="8585200"/>
-          <a:ext cx="621030" cy="6350"/>
+        <a:xfrm>
+          <a:off x="7359650" y="8590915"/>
+          <a:ext cx="3207385" cy="5715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -7475,9 +7947,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -7501,16 +7975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1687830</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1946910</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>822325</xdr:rowOff>
+      <xdr:rowOff>835660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1699260</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1958340</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>786765</xdr:rowOff>
+      <xdr:rowOff>798830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -7522,17 +7996,19 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="true">
-          <a:off x="9578975" y="6943725"/>
-          <a:ext cx="11430" cy="1640840"/>
+          <a:off x="12165330" y="6957060"/>
+          <a:ext cx="11430" cy="1639570"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2083333"/>
+            <a:gd name="adj1" fmla="val -9222222"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7561,8 +8037,8 @@
       <xdr:rowOff>135890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1852295</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>499745</xdr:rowOff>
     </xdr:to>
@@ -7574,7 +8050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5993765" y="9483090"/>
-          <a:ext cx="3383280" cy="363855"/>
+          <a:ext cx="8404225" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7762,9 +8238,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -7788,38 +8266,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1946910</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>787400</xdr:rowOff>
+      <xdr:rowOff>798830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1687830</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>689610</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>318135</xdr:rowOff>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Elbow Connector 26"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="3"/>
-          <a:endCxn id="25" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="true">
-          <a:off x="9377045" y="8585200"/>
-          <a:ext cx="201930" cy="1080135"/>
+        <a:xfrm>
+          <a:off x="12165330" y="8596630"/>
+          <a:ext cx="1069975" cy="882650"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -117925"/>
+            <a:gd name="adj1" fmla="val 100950"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -7844,44 +8323,48 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>820420</xdr:colOff>
+      <xdr:colOff>1042035</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1011555</xdr:rowOff>
+      <xdr:rowOff>989330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
+      <xdr:colOff>1043305</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>212090</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1921510" y="3754755"/>
-          <a:ext cx="5080" cy="6465570"/>
+        <a:xfrm flipH="true">
+          <a:off x="2143125" y="3732530"/>
+          <a:ext cx="1270" cy="6499860"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="57150">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="3">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -8080,44 +8563,48 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1397000</xdr:colOff>
+      <xdr:colOff>1109345</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1017905</xdr:rowOff>
+      <xdr:rowOff>989330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:colOff>1125220</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="true">
-          <a:off x="4692650" y="3761105"/>
-          <a:ext cx="12700" cy="6417945"/>
+          <a:off x="4404995" y="3732530"/>
+          <a:ext cx="15875" cy="6485890"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="57150">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
+        <a:lnRef idx="3">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
           <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="2">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -8307,16 +8794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1379855</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1488440</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
+      <xdr:rowOff>185420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>916305</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>950595</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1836420</xdr:rowOff>
+      <xdr:rowOff>1780540</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8325,7 +8812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4675505" y="12992100"/>
+          <a:off x="7044690" y="12936220"/>
           <a:ext cx="1797050" cy="1595120"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -8490,69 +8977,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>916305</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>647065</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1038225</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Elbow Connector 40"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="true">
-          <a:off x="6472555" y="3390265"/>
-          <a:ext cx="3514090" cy="10398760"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 116696"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1461770</xdr:colOff>
+      <xdr:colOff>305435</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>217805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>667385</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1972310</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1123315</xdr:rowOff>
     </xdr:to>
@@ -8563,8 +8995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2562860" y="14860905"/>
-          <a:ext cx="5995670" cy="905510"/>
+          <a:off x="1406525" y="14860905"/>
+          <a:ext cx="13111480" cy="905510"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8704,14 +9136,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1835785</xdr:rowOff>
+      <xdr:rowOff>1779905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>16510</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>217805</xdr:rowOff>
     </xdr:to>
@@ -8724,16 +9156,18 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="true">
-          <a:off x="5558790" y="14586585"/>
-          <a:ext cx="13970" cy="274320"/>
+        <a:xfrm>
+          <a:off x="7940675" y="14530705"/>
+          <a:ext cx="20955" cy="330200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -9155,9 +9589,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -9205,9 +9641,2653 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>909320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>955675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11170920" y="1391920"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>946785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>955675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>287020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="11170920" y="2534285"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1877695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10313035" y="4092575"/>
+          <a:ext cx="2143760" cy="1760220"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Calcula a Chance of Improvement:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Quantidade de bits que flipado dão melhor que o atual_fx / total de bits</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1010285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1167130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11377295" y="3753485"/>
+          <a:ext cx="8255" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1148715</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1877060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1166495</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Elbow Connector 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8822055" y="3735070"/>
+          <a:ext cx="445770" cy="4679950"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1959610</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>994410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10339705" y="10232390"/>
+          <a:ext cx="1838325" cy="2280920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Rankeia os bits DE CADA VARIÁVEL de acordo com o fitness</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Muta 1 bit DE CADA VARIÁVEL</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1084580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>499110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1096010</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11303000" y="9846310"/>
+          <a:ext cx="11430" cy="385445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>909320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>955675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13498195" y="1391920"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>946785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>955675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>287020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="13498195" y="2534285"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1877695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rounded Rectangle 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12640310" y="4092575"/>
+          <a:ext cx="2143760" cy="1760220"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Calcula a Chance of Improvement:</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Quantidade de bits que flipado dão melhor que o atual_fx / total de bits</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1010285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1167130</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="59" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13704570" y="3753485"/>
+          <a:ext cx="8255" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>950595</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>647065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2162175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>982345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="true">
+          <a:off x="8841740" y="3390265"/>
+          <a:ext cx="5866130" cy="10342880"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 111022"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121285</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>212090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1959610</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>994410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12666980" y="10232390"/>
+          <a:ext cx="1838325" cy="2280920"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="false"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Rankeia os bits DE CADA VARIÁVEL de acordo com o fitness</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>e</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" altLang="en-US" sz="1200">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Muta 1 bit DE CADA VARIÁVEL</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1084580</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>499110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1096010</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13630275" y="9846310"/>
+          <a:ext cx="11430" cy="385445"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1148715</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1877060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1165860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Elbow Connector 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9985375" y="2571750"/>
+          <a:ext cx="445770" cy="7006590"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1148397</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1876742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1166177</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Elbow Connector 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7657465" y="4897755"/>
+          <a:ext cx="445770" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921385</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>899795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>191770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477635" y="1382395"/>
+          <a:ext cx="3175" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>947420</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>950595</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Arrow Connector 81"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8838565" y="1377950"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>915670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>255905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Arrow Connector 82"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6477635" y="2503170"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>947420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>928370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>950595</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>268605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="8838565" y="2515870"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>944245</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>947420</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Arrow Connector 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11162665" y="1377950"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>944245</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>928370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>947420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>268605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Arrow Connector 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="11162665" y="2515870"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>945515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13488035" y="1377950"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>942340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>928370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>945515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>268605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Arrow Connector 87"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="13488035" y="2515870"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1149985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1017270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1151890</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="Straight Arrow Connector 88"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6706235" y="3760470"/>
+          <a:ext cx="1905" cy="329565"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1153795</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1016000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9044940" y="3759200"/>
+          <a:ext cx="8255" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921385</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>899795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>191770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477635" y="1382395"/>
+          <a:ext cx="3175" cy="396875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>942340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>945515</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Straight Arrow Connector 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8833485" y="1377950"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>921385</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>911225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>924560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="6477635" y="2498725"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>942340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>945515</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>264160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="8833485" y="2511425"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935990</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>939165</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Arrow Connector 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11154410" y="1377950"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>935990</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>939165</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>264160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="Straight Arrow Connector 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="11154410" y="2511425"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>932180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>935355</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13477875" y="1377950"/>
+          <a:ext cx="3175" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>932180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>935355</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>264160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="true">
+          <a:off x="13477875" y="2511425"/>
+          <a:ext cx="3175" cy="495935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1041717</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1008062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Elbow Connector 98"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="true">
+          <a:off x="4836795" y="9831705"/>
+          <a:ext cx="408305" cy="5797550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26386"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1109027</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>980122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>49212</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Elbow Connector 100"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="true">
+          <a:off x="5953760" y="10948670"/>
+          <a:ext cx="436245" cy="3535680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 31185"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1094422</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>993457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48577</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>183832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="Elbow Connector 101"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="true">
+          <a:off x="7083425" y="12078335"/>
+          <a:ext cx="422275" cy="1289050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30321"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>993775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1040130</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="Elbow Connector 102"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8224520" y="12228195"/>
+          <a:ext cx="422275" cy="991235"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30168"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48577</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>993457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1039812</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>183832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Elbow Connector 103"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9387205" y="11063605"/>
+          <a:ext cx="422275" cy="3318510"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 33384"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>48577</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>993457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1039177</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>183832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Elbow Connector 104"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10550525" y="9900285"/>
+          <a:ext cx="422275" cy="5645150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 30245"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
@@ -9507,110 +12587,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="38" customHeight="true" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="48"/>
+      <c r="B1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="49" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="87" customHeight="true" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" ht="91" customHeight="true" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="26"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" ht="97" customHeight="true" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" ht="169" customHeight="true" spans="1:6">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" ht="132" customHeight="true" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" ht="122" customHeight="true" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="28" t="s">
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="53" customHeight="true" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" ht="118" customHeight="true" spans="1:4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="71"/>
     </row>
     <row r="10" ht="97" customHeight="true" spans="1:6">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19"/>
-      <c r="F10" s="25"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="66"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" ht="149" customHeight="true" spans="1:4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="66"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" ht="105" customHeight="true" spans="1:6">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9626,23 +12706,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.45" customWidth="true"/>
     <col min="2" max="2" width="28.8" customWidth="true"/>
     <col min="3" max="3" width="29.6666666666667" customWidth="true"/>
     <col min="4" max="4" width="30.6416666666667" customWidth="true"/>
-    <col min="5" max="5" width="30.5416666666667" customWidth="true"/>
-    <col min="6" max="6" width="35.2833333333333" customWidth="true"/>
+    <col min="5" max="7" width="30.5416666666667" customWidth="true"/>
+    <col min="8" max="8" width="23.2166666666667" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="38" customHeight="true" spans="1:5">
+    <row r="1" ht="38" customHeight="true" spans="1:8">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -9656,95 +12736,135 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="29"/>
     </row>
-    <row r="2" ht="87" customHeight="true" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="87" customHeight="true" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
     </row>
-    <row r="3" ht="91" customHeight="true" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+    <row r="3" ht="91" customHeight="true" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="26"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
-    <row r="4" ht="97" customHeight="true" spans="1:6">
+    <row r="4" ht="97" customHeight="true" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="35"/>
     </row>
-    <row r="5" ht="169" customHeight="true" spans="1:6">
-      <c r="A5" s="12" t="s">
-        <v>12</v>
+    <row r="5" ht="169" customHeight="true" spans="1:8">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="31"/>
     </row>
-    <row r="6" ht="132" customHeight="true" spans="1:6">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="F6" s="18"/>
+    <row r="6" ht="132" customHeight="true" spans="1:8">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
     </row>
-    <row r="7" ht="122" customHeight="true" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="28" t="s">
-        <v>7</v>
+    <row r="7" ht="122" customHeight="true" spans="1:8">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="39"/>
+    </row>
+    <row r="8" ht="53" customHeight="true" spans="1:8">
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" ht="118" customHeight="true" spans="1:8">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
       </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="31"/>
     </row>
-    <row r="8" ht="53" customHeight="true" spans="1:6">
-      <c r="A8" s="16"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="25"/>
+    <row r="10" ht="97" customHeight="true" spans="1:8">
+      <c r="A10" s="14"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="33"/>
     </row>
-    <row r="9" ht="118" customHeight="true" spans="1:4">
-      <c r="A9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" ht="97" customHeight="true" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="19"/>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" ht="149" customHeight="true" spans="1:4">
-      <c r="A11" s="16" t="s">
+    <row r="11" ht="149" customHeight="true" spans="1:8">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="45"/>
     </row>
-    <row r="12" ht="105" customHeight="true" spans="1:6">
-      <c r="A12" s="16" t="s">
+    <row r="12" ht="105" customHeight="true" spans="1:8">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
